--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/mytraining/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99330AC7-26CC-7D49-8594-84A73413A35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9FE110-EC5B-924D-99DB-91B1EE8B21B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="28320" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="66">
   <si>
     <t>module</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>superadmin, administrator, speaker, participant</t>
+  </si>
+  <si>
+    <t>personal</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -665,7 +668,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/mytraining/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9FE110-EC5B-924D-99DB-91B1EE8B21B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D581DC-CCC8-934F-A0E9-1FE6337AC298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28320" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28320" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -701,7 +701,7 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/mytraining/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D581DC-CCC8-934F-A0E9-1FE6337AC298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B049CD-CA50-EA47-B1E6-B35842D7DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28320" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28320" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="65">
   <si>
     <t>module</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Pelatihan</t>
-  </si>
-  <si>
-    <t>training</t>
   </si>
   <si>
     <t>event</t>
@@ -656,10 +653,10 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
@@ -668,13 +665,13 @@
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5" t="b">
         <v>1</v>
@@ -701,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -755,7 +752,7 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -764,13 +761,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
@@ -787,7 +784,7 @@
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>37</v>
@@ -796,16 +793,16 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
@@ -819,25 +816,25 @@
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
@@ -851,25 +848,25 @@
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>0</v>
@@ -883,25 +880,25 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="H6" s="5" t="b">
         <v>0</v>
@@ -915,25 +912,25 @@
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>0</v>
@@ -947,25 +944,25 @@
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="H8" s="5" t="b">
         <v>1</v>
@@ -979,7 +976,7 @@
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -988,13 +985,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>27</v>
@@ -1045,10 +1042,10 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1056,32 +1053,32 @@
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1089,10 +1086,10 @@
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1100,10 +1097,10 @@
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1111,21 +1108,21 @@
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1143,8 +1140,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1163,7 +1160,7 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1171,7 +1168,7 @@
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1179,18 +1176,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1229,90 +1226,90 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1355,13 +1352,13 @@
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1369,13 +1366,13 @@
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1383,13 +1380,13 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1397,13 +1394,13 @@
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1411,13 +1408,13 @@
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1425,13 +1422,13 @@
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1439,13 +1436,13 @@
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -1453,13 +1450,13 @@
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/mytraining/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B049CD-CA50-EA47-B1E6-B35842D7DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7123090-1286-024F-9160-237FBD6730A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28320" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="73">
   <si>
     <t>module</t>
   </si>
@@ -220,6 +220,30 @@
   </si>
   <si>
     <t>personal</t>
+  </si>
+  <si>
+    <t>mytraining-history-rundown</t>
+  </si>
+  <si>
+    <t>mytraining-history-pretest</t>
+  </si>
+  <si>
+    <t>mytraining-history-postest</t>
+  </si>
+  <si>
+    <t>mytraining-history-presence</t>
+  </si>
+  <si>
+    <t>history/:history/rundown</t>
+  </si>
+  <si>
+    <t>history/:history/pretest</t>
+  </si>
+  <si>
+    <t>history/:history/postest</t>
+  </si>
+  <si>
+    <t>history/:history/presence</t>
   </si>
 </sst>
 </file>
@@ -696,17 +720,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -979,30 +1003,158 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="5" t="b">
+      <c r="H13" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="I13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1016,16 +1168,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1122,9 +1274,53 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1140,7 +1336,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1200,16 +1396,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1306,9 +1502,53 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1322,16 +1562,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1453,12 +1693,68 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/mytraining/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7123090-1286-024F-9160-237FBD6730A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF40E4-B607-5C44-829E-D14633A6DDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="78">
   <si>
     <t>module</t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t>history/:history/presence</t>
+  </si>
+  <si>
+    <t>Peserta</t>
+  </si>
+  <si>
+    <t>mytraining-participant</t>
+  </si>
+  <si>
+    <t>event/:event/participant</t>
+  </si>
+  <si>
+    <t>mytraining-history-participant</t>
+  </si>
+  <si>
+    <t>history/:history/participant</t>
   </si>
 </sst>
 </file>
@@ -720,17 +735,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -843,13 +858,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>38</v>
@@ -858,7 +873,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
@@ -875,13 +890,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>38</v>
@@ -890,7 +905,7 @@
         <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>0</v>
@@ -907,13 +922,13 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>38</v>
@@ -922,7 +937,7 @@
         <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5" t="b">
         <v>0</v>
@@ -939,13 +954,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>38</v>
@@ -954,7 +969,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>0</v>
@@ -971,25 +986,25 @@
         <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H8" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5" t="b">
         <v>0</v>
@@ -1003,25 +1018,25 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="5" t="b">
         <v>0</v>
@@ -1035,13 +1050,13 @@
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>38</v>
@@ -1050,7 +1065,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H10" s="5" t="b">
         <v>0</v>
@@ -1067,13 +1082,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>38</v>
@@ -1082,7 +1097,7 @@
         <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" s="5" t="b">
         <v>0</v>
@@ -1099,13 +1114,13 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
@@ -1114,7 +1129,7 @@
         <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H12" s="5" t="b">
         <v>0</v>
@@ -1131,30 +1146,94 @@
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="5" t="b">
+      <c r="H15" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="I15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1168,16 +1247,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B13"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1219,7 +1298,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
@@ -1230,10 +1309,10 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
@@ -1241,7 +1320,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1252,7 +1331,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1263,10 +1342,10 @@
         <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
@@ -1274,29 +1353,29 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="18" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="18" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>60</v>
@@ -1307,7 +1386,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>60</v>
@@ -1318,9 +1397,31 @@
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1396,16 +1497,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B13"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1447,7 +1548,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>63</v>
@@ -1458,7 +1559,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>63</v>
@@ -1469,7 +1570,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>63</v>
@@ -1480,7 +1581,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>63</v>
@@ -1491,7 +1592,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>63</v>
@@ -1502,7 +1603,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>63</v>
@@ -1513,7 +1614,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
@@ -1524,7 +1625,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>63</v>
@@ -1535,7 +1636,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>63</v>
@@ -1546,9 +1647,31 @@
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1562,16 +1685,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1623,7 +1746,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>63</v>
@@ -1637,7 +1760,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>63</v>
@@ -1651,7 +1774,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>63</v>
@@ -1665,7 +1788,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>63</v>
@@ -1679,7 +1802,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>63</v>
@@ -1693,7 +1816,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>63</v>
@@ -1707,7 +1830,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
@@ -1721,7 +1844,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>63</v>
@@ -1735,7 +1858,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>63</v>
@@ -1749,12 +1872,40 @@
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/mytraining/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF40E4-B607-5C44-829E-D14633A6DDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF249A86-67BD-474F-86CC-70C43F5F4A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="79">
   <si>
     <t>module</t>
   </si>
@@ -213,12 +213,6 @@
     <t>speaker</t>
   </si>
   <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>superadmin, administrator, speaker, participant</t>
-  </si>
-  <si>
     <t>personal</t>
   </si>
   <si>
@@ -259,6 +253,15 @@
   </si>
   <si>
     <t>history/:history/participant</t>
+  </si>
+  <si>
+    <t>chairman</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>superadmin, administrator, speaker, chairman, member</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
@@ -858,13 +861,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>38</v>
@@ -873,7 +876,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
@@ -1050,13 +1053,13 @@
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>38</v>
@@ -1065,7 +1068,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H10" s="5" t="b">
         <v>0</v>
@@ -1088,7 +1091,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>38</v>
@@ -1097,7 +1100,7 @@
         <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="5" t="b">
         <v>0</v>
@@ -1120,7 +1123,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
@@ -1129,7 +1132,7 @@
         <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H12" s="5" t="b">
         <v>0</v>
@@ -1152,7 +1155,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>38</v>
@@ -1161,7 +1164,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H13" s="5" t="b">
         <v>0</v>
@@ -1184,7 +1187,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
@@ -1193,7 +1196,7 @@
         <v>48</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H14" s="5" t="b">
         <v>0</v>
@@ -1298,7 +1301,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
@@ -1364,7 +1367,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>60</v>
@@ -1375,7 +1378,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>60</v>
@@ -1386,7 +1389,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>60</v>
@@ -1397,7 +1400,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>60</v>
@@ -1408,7 +1411,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>60</v>
@@ -1435,10 +1438,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1484,7 +1487,15 @@
         <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1500,14 +1511,14 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
@@ -1529,7 +1540,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
@@ -1540,7 +1551,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
@@ -1548,10 +1559,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
@@ -1562,7 +1573,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
@@ -1573,7 +1584,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
@@ -1584,7 +1595,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1">
@@ -1595,7 +1606,7 @@
         <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
@@ -1606,7 +1617,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1614,10 +1625,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1625,10 +1636,10 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1636,10 +1647,10 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1647,10 +1658,10 @@
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1658,10 +1669,10 @@
         <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1672,7 +1683,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1687,15 +1698,15 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1721,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1735,7 +1746,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1746,10 +1757,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1763,7 +1774,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1777,7 +1788,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1791,7 +1802,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1805,7 +1816,7 @@
         <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -1819,7 +1830,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
@@ -1830,10 +1841,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -1844,10 +1855,10 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -1858,10 +1869,10 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
@@ -1872,10 +1883,10 @@
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -1886,10 +1897,10 @@
         <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>4</v>
@@ -1903,7 +1914,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/mytraining/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF249A86-67BD-474F-86CC-70C43F5F4A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B33C7BC-EE8A-F249-B72B-27C7D2C80A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="82">
   <si>
     <t>module</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>superadmin, administrator, speaker, chairman, member</t>
+  </si>
+  <si>
+    <t>view, show, upload, search</t>
+  </si>
+  <si>
+    <t>chairman, member</t>
+  </si>
+  <si>
+    <t>superadmin, administrator, speaker</t>
   </si>
 </sst>
 </file>
@@ -644,8 +653,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1253,7 +1262,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1315,7 +1324,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
@@ -1440,7 +1449,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1511,7 +1520,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1696,10 +1705,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1774,10 +1783,10 @@
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
@@ -1785,10 +1794,10 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1799,7 +1808,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>78</v>
@@ -1813,7 +1822,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>78</v>
@@ -1827,7 +1836,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>78</v>
@@ -1836,12 +1845,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="18" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>78</v>
@@ -1855,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>78</v>
@@ -1869,7 +1878,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>78</v>
@@ -1883,7 +1892,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>78</v>
@@ -1897,7 +1906,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>78</v>
@@ -1911,12 +1920,26 @@
         <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/mytraining/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/mytraining/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B33C7BC-EE8A-F249-B72B-27C7D2C80A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC6FF7-F7AE-7C43-AEAE-6FD71F909DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="81">
   <si>
     <t>module</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>blue-grey</t>
-  </si>
-  <si>
-    <t>backend</t>
   </si>
   <si>
     <t>school</t>
@@ -654,7 +651,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -704,25 +701,23 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="5" t="b">
         <v>1</v>
@@ -734,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +798,7 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -812,13 +807,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
@@ -835,25 +830,25 @@
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
@@ -867,25 +862,25 @@
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
@@ -899,25 +894,25 @@
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>0</v>
@@ -931,25 +926,25 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H6" s="5" t="b">
         <v>0</v>
@@ -963,25 +958,25 @@
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>0</v>
@@ -995,25 +990,25 @@
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="5" t="b">
         <v>0</v>
@@ -1027,25 +1022,25 @@
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="H9" s="5" t="b">
         <v>1</v>
@@ -1059,25 +1054,25 @@
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="H10" s="5" t="b">
         <v>0</v>
@@ -1091,25 +1086,25 @@
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="5" t="b">
         <v>0</v>
@@ -1123,25 +1118,25 @@
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="5" t="b">
         <v>0</v>
@@ -1155,25 +1150,25 @@
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="5" t="b">
         <v>0</v>
@@ -1187,25 +1182,25 @@
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="5" t="b">
         <v>0</v>
@@ -1219,7 +1214,7 @@
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -1228,13 +1223,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>27</v>
@@ -1285,10 +1280,10 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1296,43 +1291,43 @@
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1340,10 +1335,10 @@
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1351,10 +1346,10 @@
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1362,76 +1357,76 @@
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1469,7 +1464,7 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1477,7 +1472,7 @@
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1485,26 +1480,26 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1543,156 +1538,156 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1735,13 +1730,13 @@
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1749,13 +1744,13 @@
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1763,13 +1758,13 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1777,27 +1772,27 @@
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1805,13 +1800,13 @@
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1819,13 +1814,13 @@
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -1833,13 +1828,13 @@
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
@@ -1847,13 +1842,13 @@
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -1861,13 +1856,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -1875,13 +1870,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
@@ -1889,13 +1884,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -1903,13 +1898,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>4</v>
@@ -1917,13 +1912,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -1931,13 +1926,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/mytraining/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC6FF7-F7AE-7C43-AEAE-6FD71F909DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0A799D-9AB6-094B-BF2B-AC2174E323DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="78">
   <si>
     <t>module</t>
   </si>
@@ -252,29 +252,20 @@
     <t>history/:history/participant</t>
   </si>
   <si>
-    <t>chairman</t>
-  </si>
-  <si>
     <t>member</t>
   </si>
   <si>
-    <t>superadmin, administrator, speaker, chairman, member</t>
-  </si>
-  <si>
     <t>view, show, upload, search</t>
   </si>
   <si>
-    <t>chairman, member</t>
-  </si>
-  <si>
-    <t>superadmin, administrator, speaker</t>
+    <t>superadmin, administrator, speaker, member</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +285,22 @@
       <color rgb="FF000000"/>
       <name val="Fira Code Regular"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Fira Code"/>
     </font>
   </fonts>
   <fills count="2">
@@ -323,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -342,6 +349,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +667,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -745,7 +762,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -761,7 +778,7 @@
     <col min="11" max="11" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -828,7 +845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -860,7 +877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -892,7 +909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -924,7 +941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -956,7 +973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -988,7 +1005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1020,7 +1037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -1052,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1084,7 +1101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -1116,7 +1133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1148,7 +1165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1180,7 +1197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -1212,7 +1229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -1257,7 +1274,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1267,7 +1284,7 @@
     <col min="3" max="3" width="62.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -1289,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1300,7 +1317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1311,7 +1328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1319,10 +1336,10 @@
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -1333,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1344,7 +1361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1355,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -1366,7 +1383,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1377,7 +1394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -1442,64 +1459,57 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1514,8 +1524,8 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1525,7 +1535,7 @@
     <col min="3" max="3" width="54.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -1547,7 +1557,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1558,7 +1568,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1569,7 +1579,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1580,7 +1590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1602,7 +1612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1613,7 +1623,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -1700,10 +1710,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1714,7 +1724,7 @@
     <col min="4" max="4" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1756,7 +1766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1770,7 +1780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1778,32 +1788,32 @@
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>77</v>
@@ -1812,12 +1822,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>77</v>
@@ -1826,12 +1836,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>77</v>
@@ -1840,12 +1850,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>77</v>
@@ -1859,7 +1869,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>77</v>
@@ -1873,7 +1883,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>77</v>
@@ -1887,7 +1897,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>77</v>
@@ -1901,7 +1911,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>77</v>
@@ -1915,26 +1925,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/mytraining/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0A799D-9AB6-094B-BF2B-AC2174E323DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA5A495-9248-8F41-8067-C86BE537C031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="86">
   <si>
     <t>module</t>
   </si>
@@ -259,6 +259,30 @@
   </si>
   <si>
     <t>superadmin, administrator, speaker, member</t>
+  </si>
+  <si>
+    <t>Member-Pretest</t>
+  </si>
+  <si>
+    <t>mytraining-member-pretest</t>
+  </si>
+  <si>
+    <t>event/:event/member-pretest</t>
+  </si>
+  <si>
+    <t>Member-Postest</t>
+  </si>
+  <si>
+    <t>mytraining-member-postest</t>
+  </si>
+  <si>
+    <t>event/:event/member-postest</t>
+  </si>
+  <si>
+    <t>view, show, update, search</t>
+  </si>
+  <si>
+    <t>superadmin, administrator, member</t>
   </si>
 </sst>
 </file>
@@ -759,10 +783,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1261,6 +1285,70 @@
         <v>24</v>
       </c>
     </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1271,10 +1359,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1447,6 +1535,28 @@
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1522,10 +1632,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1700,6 +1810,28 @@
         <v>77</v>
       </c>
     </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1710,10 +1842,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1934,6 +2066,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
